--- a/example_usage/suites/cbtest.xlsx
+++ b/example_usage/suites/cbtest.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skorpu\Documents\feature\SprintTMO11\codeless_testcases_differnetbrowsers\example_usage\suites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ct_FeatureBranch\Us582725_build_codelsess\example_usage\suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="107">
   <si>
     <t>key</t>
   </si>
@@ -342,7 +342,10 @@
     <t>ALLSTEPS</t>
   </si>
   <si>
-    <t>webdriver::chrome::version::72</t>
+    <t>webdriver::chrome::version::72::platform::macOS</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -789,7 +792,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>13</v>
@@ -1085,7 +1088,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/example_usage/suites/cbtest.xlsx
+++ b/example_usage/suites/cbtest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skorpu\Documents\feature\SprintTMO11\codeless_testcases_differnetbrowsers\example_usage\suites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jung\Documents\codeless\example_usage\suites\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680CC430-3C49-49F5-A705-124F0664AA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="5955" yWindow="3480" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c-demo_ui" sheetId="2" r:id="rId1"/>
@@ -87,12 +88,6 @@
     <t>Path to the firefox webdriver to use for this machine. Installed under &lt;INSTALL_DIR&gt;/webdrivers/&lt;OS&gt; by default. For Windows: web_drivers/windows/geckodriver.exe For Mac: web_drivers/mac/geckodriver</t>
   </si>
   <si>
-    <t>webdriver.path.ie</t>
-  </si>
-  <si>
-    <t>web_drivers/windows/IEDriverServer.exe</t>
-  </si>
-  <si>
     <t>Path to the ie webdriver to use for this machine. Installed under &lt;INSTALL_DIR&gt;/webdrivers/&lt;OS&gt; by default. Windows only, no other valid settings.</t>
   </si>
   <si>
@@ -105,36 +100,15 @@
     <t>click</t>
   </si>
   <si>
-    <t>webdriver.platform.chrome</t>
-  </si>
-  <si>
     <t>Windows</t>
   </si>
   <si>
     <t>Plateform type for remote web driver intializing</t>
   </si>
   <si>
-    <t>webdriver.version.chrome</t>
-  </si>
-  <si>
     <t>Version for plateform type selected</t>
   </si>
   <si>
-    <t>webdriver.platform.ie</t>
-  </si>
-  <si>
-    <t>webdriver.version.ie</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>webdriver.platform.firefox</t>
-  </si>
-  <si>
-    <t>webdriver.version.firefox</t>
-  </si>
-  <si>
     <t>webdriver.platform.safari</t>
   </si>
   <si>
@@ -324,12 +298,6 @@
     <t>{{title}} othervariable: {{title}}</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>chrome</t>
   </si>
   <si>
@@ -343,12 +311,45 @@
   </si>
   <si>
     <t>webdriver::chrome::version::72</t>
+  </si>
+  <si>
+    <t>webdriver.path.edge</t>
+  </si>
+  <si>
+    <t>web_drivers/windows/msedgedriver.exe</t>
+  </si>
+  <si>
+    <t>webdriver.platformName.chrome</t>
+  </si>
+  <si>
+    <t>webdriver.browserVersion.chrome</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>webdriver.platformName.edge</t>
+  </si>
+  <si>
+    <t>webdriver.browserVersion.edge</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>webdriver.platformName.firefox</t>
+  </si>
+  <si>
+    <t>webdriver.browserVersion.firefox</t>
+  </si>
+  <si>
+    <t>96</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,22 +748,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.44140625" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.5546875" style="6"/>
+    <col min="1" max="1" width="39.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.5703125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -773,29 +774,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="36" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
@@ -806,7 +807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>17</v>
       </c>
@@ -817,261 +818,261 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="C22" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="14"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="14"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="14"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="B23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="8" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A23" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="8" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.35">
-      <c r="A24" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="8" t="s">
+      <c r="B32" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="10" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="54" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1081,26 +1082,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.5546875" style="1"/>
+    <col min="8" max="16384" width="8.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1120,10 +1121,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1132,130 +1133,130 @@
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
     </row>
   </sheetData>
